--- a/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,03</t>
+          <t>-7,09; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 13,85</t>
+          <t>-3,87; 13,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,27</t>
+          <t>-4,63; 4,69</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 8,93</t>
+          <t>-13,97; 9,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 62,74</t>
+          <t>-13,47; 55,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 13,49</t>
+          <t>-10,15; 11,7</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 6,32</t>
+          <t>-2,61; 5,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 4,29</t>
+          <t>-6,03; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,59</t>
+          <t>-2,34; 4,17</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 20,57</t>
+          <t>-7,26; 18,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 16,02</t>
+          <t>-18,47; 15,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 11,9</t>
+          <t>-7,2; 14,21</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 9,64</t>
+          <t>-5,78; 10,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 9,74</t>
+          <t>-5,99; 10,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,77</t>
+          <t>-3,81; 7,18</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 63,79</t>
+          <t>-27,19; 65,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 75,73</t>
+          <t>-28,83; 77,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 52,98</t>
+          <t>-19,93; 46,09</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,7</t>
+          <t>-2,25; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,64; 4,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,14</t>
+          <t>-1,64; 3,32</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 10,58</t>
+          <t>-6,05; 10,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,9; 19,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 10,14</t>
+          <t>-4,82; 10,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 4,2</t>
+          <t>-7,06; 3,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 13,17</t>
+          <t>-2,94; 14,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 4,69</t>
+          <t>-5,21; 4,46</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 9,38</t>
+          <t>-14,31; 8,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 55,85</t>
+          <t>-9,34; 64,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 11,7</t>
+          <t>-11,66; 11,2</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,58</t>
+          <t>-2,84; 5,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 4,13</t>
+          <t>-5,4; 4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,17</t>
+          <t>-2,69; 3,6</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 18,65</t>
+          <t>-8,46; 18,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,47; 15,4</t>
+          <t>-16,69; 15,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 14,21</t>
+          <t>-8,09; 12,17</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 10,18</t>
+          <t>-5,41; 9,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 10,36</t>
+          <t>-6,16; 10,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 7,18</t>
+          <t>-3,89; 7,17</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 65,44</t>
+          <t>-25,09; 64,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,83; 77,7</t>
+          <t>-29,03; 78,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 46,09</t>
+          <t>-18,54; 47,41</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,76</t>
+          <t>-2,64; 3,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,84</t>
+          <t>-2,85; 4,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,32</t>
+          <t>-1,56; 3,54</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 10,98</t>
+          <t>-6,98; 10,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 19,4</t>
+          <t>-9,63; 19,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 10,57</t>
+          <t>-4,65; 10,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 3,57</t>
+          <t>-7,08; 4,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 14,19</t>
+          <t>-3,43; 13,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,46</t>
+          <t>-4,88; 5,27</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 8,19</t>
+          <t>-14,38; 8,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 64,64</t>
+          <t>-11,39; 62,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 11,2</t>
+          <t>-10,96; 13,49</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 5,55</t>
+          <t>-2,51; 6,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,19</t>
+          <t>-5,89; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,6</t>
+          <t>-2,86; 3,59</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 18,01</t>
+          <t>-6,91; 20,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 15,6</t>
+          <t>-17,91; 16,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 12,17</t>
+          <t>-8,47; 11,9</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 9,74</t>
+          <t>-5,74; 9,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 10,97</t>
+          <t>-5,71; 9,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 7,17</t>
+          <t>-3,53; 7,77</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 64,29</t>
+          <t>-27,19; 63,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-29,03; 78,72</t>
+          <t>-28,47; 75,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 47,41</t>
+          <t>-17,46; 52,98</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 3,6</t>
+          <t>-2,55; 3,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,84</t>
+          <t>-2,73; 4,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,54</t>
+          <t>-1,57; 3,14</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 10,41</t>
+          <t>-6,85; 10,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,21</t>
+          <t>-9,46; 19,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 10,97</t>
+          <t>-4,55; 10,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +520,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +540,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,6 +612,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>10,65</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,09</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,04</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>44,65</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>-0,08</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,29</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
         </is>
       </c>
     </row>
@@ -584,12 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-6,27; 25,99</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 12,65</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-3,43; 13,85</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 72,73</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-8,79; 9,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>-4,88; 5,27</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3,9; 33,04</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 9,71</t>
         </is>
       </c>
     </row>
@@ -607,12 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>22,37%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>18,75%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>165,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-0,2%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43,32%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -630,12 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-13,18; 56,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 27,49</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-11,39; 62,74</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 287,7</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 42,27</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>-10,96; 13,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8,94; 80,63</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 24,06</t>
         </is>
       </c>
     </row>
@@ -657,12 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>20,53</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-0,6</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15,91</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-5,32</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0,63</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>19,78</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-6,95</t>
         </is>
       </c>
     </row>
@@ -680,12 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>11,45; 29,5</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-21,33; 0,71</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-5,89; 4,29</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 32,63</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; -0,09</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>-2,86; 3,59</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11,41; 27,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-16,16; -1,75</t>
         </is>
       </c>
     </row>
@@ -703,12 +959,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>62,83%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-24,66%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-1,99%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53,27%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-17,8%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>1,99%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>62,71%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-22,03%</t>
         </is>
       </c>
     </row>
@@ -726,12 +1012,42 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>34,51; 94,26</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-61,59; 1,91</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-17,91; 16,02</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 110,96</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-29,67; -0,34</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>-8,47; 11,9</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>35,36; 90,23</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-48,73; -5,85</t>
         </is>
       </c>
     </row>
@@ -753,12 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>12,01</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>2,14</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16,96</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>1,79</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,02</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -776,12 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-5,39; 33,28</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 9,29</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-5,71; 9,74</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-3,13; 46,54</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 11,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>-3,53; 7,77</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 30,92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 7,58</t>
         </is>
       </c>
     </row>
@@ -799,12 +1175,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>64,48%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8,38%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>12,52%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>9,94%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -822,12 +1228,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-26,39; 201,59</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-24,5; 63,84</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-28,47; 75,73</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-18,25; 333,89</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 84,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>-17,46; 52,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 187,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 48,56</t>
         </is>
       </c>
     </row>
@@ -849,12 +1285,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-6,62</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18,53</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-2,85</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>0,68</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16,82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,26</t>
         </is>
       </c>
     </row>
@@ -872,12 +1338,42 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>7,13; 22,15</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-18,19; -0,24</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-2,73; 4,74</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 31,07</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-6,65; 1,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>-1,57; 3,14</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 23,23</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-13,51; -1,66</t>
         </is>
       </c>
     </row>
@@ -895,12 +1391,42 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>41,83%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-18,46%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>4,46%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>68,56%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-10,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>2,1%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>51,55%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-16,11%</t>
         </is>
       </c>
     </row>
@@ -918,12 +1444,42 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>19,62; 63,17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-50,4; -0,73</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>-9,46; 19,11</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>25,37; 118,45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-23,16; 4,04</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-4,55; 10,14</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>29,82; 71,99</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-42,25; -5,29</t>
         </is>
       </c>
     </row>
@@ -935,10 +1491,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,65</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,29</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,03</t>
+          <t>-7,97; 3,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 25,99</t>
+          <t>-8,76; 4,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 12,65</t>
+          <t>-0,64; 12,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 13,85</t>
+          <t>-4,19; 13,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 72,73</t>
+          <t>-2,86; 15,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 9,4</t>
+          <t>-8,3; 9,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,27</t>
+          <t>-4,82; 4,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 33,04</t>
+          <t>-5,48; 5,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 9,71</t>
+          <t>-1,53; 9,56</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>165,97%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>-0,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 8,93</t>
+          <t>-15,93; 8,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 56,04</t>
+          <t>-16,92; 9,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 27,49</t>
+          <t>-1,17; 28,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 62,74</t>
+          <t>-13,74; 57,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 287,7</t>
+          <t>-9,44; 70,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 42,27</t>
+          <t>-27,54; 40,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 13,49</t>
+          <t>-10,41; 12,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,94; 80,63</t>
+          <t>-12,44; 12,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 24,06</t>
+          <t>-3,57; 23,71</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,53</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 6,32</t>
+          <t>-2,79; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 29,5</t>
+          <t>-1,74; 6,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 0,71</t>
+          <t>-21,37; 0,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 4,29</t>
+          <t>-5,34; 4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 32,63</t>
+          <t>-9,63; -0,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; -0,09</t>
+          <t>-9,98; -0,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 3,59</t>
+          <t>-2,4; 3,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,41; 27,42</t>
+          <t>-3,84; 2,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -1,75</t>
+          <t>-16,67; -2,4</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>-2,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 20,57</t>
+          <t>-7,94; 18,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,51; 94,26</t>
+          <t>-4,99; 21,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,59; 1,91</t>
+          <t>-60,68; 0,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 16,02</t>
+          <t>-16,17; 14,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 110,96</t>
+          <t>-28,86; 0,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-29,67; -0,34</t>
+          <t>-30,93; -1,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 11,9</t>
+          <t>-7,34; 12,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,36; 90,23</t>
+          <t>-11,5; 7,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,73; -5,85</t>
+          <t>-51,85; -7,78</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,01</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>14,02</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 9,64</t>
+          <t>-5,55; 9,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 33,28</t>
+          <t>-2,55; 13,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 9,29</t>
+          <t>-6,33; 8,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 9,74</t>
+          <t>-6,74; 9,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 46,54</t>
+          <t>-2,64; 13,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 11,26</t>
+          <t>-3,88; 11,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,77</t>
+          <t>-3,39; 7,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 30,92</t>
+          <t>-0,16; 11,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 7,58</t>
+          <t>-3,05; 7,68</t>
         </is>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 63,79</t>
+          <t>-24,78; 68,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 201,59</t>
+          <t>-11,65; 88,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 63,84</t>
+          <t>-26,33; 53,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 75,73</t>
+          <t>-31,28; 70,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 333,89</t>
+          <t>-12,84; 102,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,34; 84,54</t>
+          <t>-17,43; 89,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 52,98</t>
+          <t>-15,9; 48,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 187,66</t>
+          <t>-1,06; 71,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 48,56</t>
+          <t>-14,66; 52,09</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,53</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,7</t>
+          <t>-2,49; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,13; 22,15</t>
+          <t>-2,94; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,19; -0,24</t>
+          <t>-17,58; -0,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,74</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 31,07</t>
+          <t>-4,95; 2,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,02</t>
+          <t>-6,78; 0,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,14</t>
+          <t>-1,85; 2,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,93; 23,23</t>
+          <t>-3,12; 1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-13,51; -1,66</t>
+          <t>-13,75; -1,6</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 10,58</t>
+          <t>-6,86; 10,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,62; 63,17</t>
+          <t>-7,86; 11,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,4; -0,73</t>
+          <t>-48,53; -1,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 19,11</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,37; 118,45</t>
+          <t>-17,62; 10,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 4,04</t>
+          <t>-23,51; 1,41</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 10,14</t>
+          <t>-5,56; 9,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,82; 71,99</t>
+          <t>-9,29; 5,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,25; -5,29</t>
+          <t>-40,93; -5,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Q23_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,09</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>-0,33</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,09</t>
         </is>
       </c>
     </row>
@@ -695,37 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 12,82</t>
+          <t>-4,19; 13,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 13,31</t>
+          <t>-2,86; 15,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 15,51</t>
+          <t>-4,82; 4,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 9,25</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 4,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
           <t>-5,48; 5,0</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-1,53; 9,56</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,2%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>-0,77%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>9,69%</t>
         </is>
       </c>
     </row>
@@ -801,37 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 28,67</t>
+          <t>-13,74; 57,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 57,12</t>
+          <t>-9,44; 70,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 70,78</t>
+          <t>-10,41; 12,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 40,3</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; 12,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
           <t>-12,44; 12,54</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-3,57; 23,71</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,64</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,32</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-0,65</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-6,95</t>
         </is>
       </c>
     </row>
@@ -911,37 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,37; 0,11</t>
+          <t>-5,34; 4,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 4,15</t>
+          <t>-9,63; -0,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -0,01</t>
+          <t>-2,4; 3,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; -0,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 3,66</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
           <t>-3,84; 2,25</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-16,67; -2,4</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-24,66%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>-15,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,53%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,8%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-2,05%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-22,03%</t>
         </is>
       </c>
     </row>
@@ -1017,37 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-60,68; 0,31</t>
+          <t>-16,17; 14,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 14,87</t>
+          <t>-28,86; 0,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 0,65</t>
+          <t>-7,34; 12,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; -1,93</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 12,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
           <t>-11,5; 7,58</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-51,85; -7,78</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,75</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,79</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>5,54</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,57</t>
         </is>
       </c>
     </row>
@@ -1127,37 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 8,02</t>
+          <t>-6,74; 9,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 9,72</t>
+          <t>-2,64; 13,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 13,52</t>
+          <t>-3,39; 7,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 11,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,39; 7,4</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
           <t>-0,16; 11,3</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 7,68</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>22,79%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>30,83%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,33; 53,68</t>
+          <t>-31,28; 70,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 70,26</t>
+          <t>-12,84; 102,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 102,61</t>
+          <t>-15,9; 48,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 89,98</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-15,9; 48,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
           <t>-1,06; 71,45</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-14,66; 52,09</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,62</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-0,61</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-5,26</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -0,35</t>
+          <t>-2,57; 5,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 5,01</t>
+          <t>-4,95; 2,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 2,56</t>
+          <t>-1,85; 2,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 0,42</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 2,94</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
           <t>-3,12; 1,74</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; -1,6</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-18,46%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-3,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,97%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-1,87%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-16,11%</t>
         </is>
       </c>
     </row>
@@ -1449,37 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,53; -1,06</t>
+          <t>-8,76; 19,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 19,97</t>
+          <t>-17,62; 10,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 10,3</t>
+          <t>-5,56; 9,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 1,41</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-5,56; 9,39</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
           <t>-9,29; 5,49</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>-40,93; -5,22</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1222,11 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
